--- a/biology/Botanique/Saint-gervais_(côtes-du-rhône_villages)/Saint-gervais_(côtes-du-rhône_villages).xlsx
+++ b/biology/Botanique/Saint-gervais_(côtes-du-rhône_villages)/Saint-gervais_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 .
-Saint-Gervais[2], ou côtes-du-rhône villages Saint-Gervais, est un vin produit sur la commune de Saint-Gervais, dans le département du Gard.
+Saint-Gervais, ou côtes-du-rhône villages Saint-Gervais, est un vin produit sur la commune de Saint-Gervais, dans le département du Gard.
 Il s'agit d'une des dix-sept dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,14 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De l'Antiquité au Moyen Âge
-Plusieurs villas et fabriques romaines ont laissé de beaux vestiges dans la plaine.
+          <t>De l'Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs villas et fabriques romaines ont laissé de beaux vestiges dans la plaine.
 Des tombes sarrasines et wisigothiques évoquent d'anciennes migrations.
 Au Moyen Âge, Saint Gervais s'est créé en cercle autour de son église (dont les fondations sont du XIe siècle, voire du IXe siècle) et de sa maison forte du XIIIe siècle.
-Période moderne
-La maison forte du XIIIe siècle devient un château en 1607. Une ancienne poudrière et des casernes rappellent ce passé où la sécurité devait être assurée par les habitants eux-mêmes. Les troupes royales ont fait étape dans la commune.
-Période contemporaine
-En 1974, le vin est reconnu par un label AOC[3].
 </t>
         </is>
       </c>
@@ -534,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +562,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La commune a pour nom Saint-Gervais, provenant d'un saint protecteur souvent associé à son frère Protais. C'étaient des jumeaux, fils de Vital de Ravenne et de Valérie, qui vivaient au Ier siècle sous le règne de l'empereur Néron. Leur histoire est connue par la Légende dorée de Jacques de Voragine.
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison forte du XIIIe siècle devient un château en 1607. Une ancienne poudrière et des casernes rappellent ce passé où la sécurité devait être assurée par les habitants eux-mêmes. Les troupes royales ont fait étape dans la commune.
 </t>
         </is>
       </c>
@@ -565,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,119 +599,371 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1974, le vin est reconnu par un label AOC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune a pour nom Saint-Gervais, provenant d'un saint protecteur souvent associé à son frère Protais. C'étaient des jumeaux, fils de Vital de Ravenne et de Valérie, qui vivaient au Ier siècle sous le règne de l'empereur Néron. Leur histoire est connue par la Légende dorée de Jacques de Voragine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le vignoble se trouve au bord de Cèze, son terroir est traversé par la Route Départementale 980
-Orographie
-Géologie
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un bel atout :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble se trouve au bord de Cèze, son terroir est traversé par la Route Départementale 980
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un bel atout :
 le mistral assainit le vignoble ;
 la saisonnalité des pluies est très marquée ;
 les températures sont très chaudes pendant l'été.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur la commune de Saint-Gervais.
-Encépagement
-Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la commune de Saint-Gervais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N. 
 Les blancs sont principalement fait avec du grenache blanc B, de la clairette B, de la marsanne B, de la roussanne B, du bourboulenc B et du viognier B, complétés accessoirement par du piquepoul blanc B et de l'ugni blanc B.
-Méthodes culturales
-Cette appellation est produite par un vignoble qui couvre 137 hectates. Sa production annuelle s'élève à 5 109 hectolitres avec rendement moyen de 37 hl/ha.
-Terroir et vins
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette appellation est produite par un vignoble qui couvre 137 hectates. Sa production annuelle s'élève à 5 109 hectolitres avec rendement moyen de 37 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges évoluent des arômes de fruits à noyau en leur prime jeunesse vers des notes de cuir et de truffes en vieillissant. Ce sont des vins de grande garde - dix ans et plus - traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes (avignonnaise ou provençale), les civets de chevreuil, de lièvre ou de sanglier et avec une gardianne de taureau. 
 Le rosé, en fonction de sa vinification - par saignée ou par pressurage -  peut se garder entre 2 ou 4 ans. C'est un vin à boire à table avec les charcuteries et les fromages. Il s'accorde parfaitement avec la cuisine asiatique.
 Le blanc, traditionnellement, est conseillé soit en apéritif, soit sur des poissons, coquillages et crustacé&amp;s. Il se révèle parfait en accompagnement d'un fromage de chèvre.
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Saint-gervais_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-gervais_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>La place de Saint-Gervais parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
